--- a/data/trans_dic/P13A_1_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_2023-Provincia-trans_dic.xlsx
@@ -610,10 +610,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9423944929807114</v>
+        <v>0.9423944929807113</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9602425208116722</v>
+        <v>0.9602425208116719</v>
       </c>
     </row>
     <row r="8">
@@ -625,10 +625,10 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.8289649355618239</v>
+        <v>0.7940644681140145</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8580613576280777</v>
+        <v>0.8675265248063496</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9690708126153341</v>
+        <v>0.969070812615334</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9760147776149172</v>
+        <v>0.9760147776149174</v>
       </c>
     </row>
     <row r="11">
@@ -676,10 +676,10 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.8381743967230335</v>
+        <v>0.8364238376818803</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.853928981400953</v>
+        <v>0.8725371097643958</v>
       </c>
     </row>
     <row r="12">
@@ -770,10 +770,10 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.6392220151913757</v>
+        <v>0.5382460673226626</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7324634602267884</v>
+        <v>0.6764030015647957</v>
       </c>
     </row>
     <row r="18">
@@ -809,7 +809,7 @@
         <v>0.9622325645957903</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9745243419639356</v>
+        <v>0.9745243419639357</v>
       </c>
     </row>
     <row r="20">
@@ -821,10 +821,10 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.8257443825202139</v>
+        <v>0.8034138461043162</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.864234006924818</v>
+        <v>0.8876217463183906</v>
       </c>
     </row>
     <row r="21">
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.9223084405105808</v>
+        <v>0.9223084405105809</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.9335852147794196</v>
@@ -872,10 +872,10 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>0.7400291592502993</v>
+        <v>0.7641356634487299</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7782841434628988</v>
+        <v>0.7688763517764452</v>
       </c>
     </row>
     <row r="24">
@@ -887,10 +887,10 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.9854749071934061</v>
+        <v>0.985350403287093</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9856312437044334</v>
+        <v>0.9881037099107217</v>
       </c>
     </row>
     <row r="25">
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.907550030661292</v>
+        <v>0.9075500306612923</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.9120578504386953</v>
@@ -923,10 +923,10 @@
       </c>
       <c r="C26" s="5" t="inlineStr"/>
       <c r="D26" s="5" t="n">
-        <v>0.6973827438303717</v>
+        <v>0.7196705086324334</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7119168430974971</v>
+        <v>0.7201482946077402</v>
       </c>
     </row>
     <row r="27">
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.9435065701824737</v>
+        <v>0.9435065701824735</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.9545434187860116</v>
@@ -974,10 +974,10 @@
       </c>
       <c r="C29" s="5" t="inlineStr"/>
       <c r="D29" s="5" t="n">
-        <v>0.8895702521943534</v>
+        <v>0.8873155270420866</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.9100689901674069</v>
+        <v>0.9085105872239492</v>
       </c>
     </row>
     <row r="30">
@@ -989,10 +989,10 @@
       </c>
       <c r="C30" s="5" t="inlineStr"/>
       <c r="D30" s="5" t="n">
-        <v>0.9727628384682264</v>
+        <v>0.9725621456740506</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9776950480371631</v>
+        <v>0.9791373958151877</v>
       </c>
     </row>
     <row r="31">
@@ -1199,10 +1199,10 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>24322</v>
+        <v>23298</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>36477</v>
+        <v>36879</v>
       </c>
     </row>
     <row r="11">
@@ -1267,10 +1267,10 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>15244</v>
+        <v>15212</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20027</v>
+        <v>20464</v>
       </c>
     </row>
     <row r="15">
@@ -1395,10 +1395,10 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>3135</v>
+        <v>2640</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5092</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="23">
@@ -1463,10 +1463,10 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>10571</v>
+        <v>10285</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>16402</v>
+        <v>16846</v>
       </c>
     </row>
     <row r="27">
@@ -1531,10 +1531,10 @@
       </c>
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="n">
-        <v>38850</v>
+        <v>40116</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>47796</v>
+        <v>47218</v>
       </c>
     </row>
     <row r="31">
@@ -1546,10 +1546,10 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>51735</v>
+        <v>51729</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>60530</v>
+        <v>60681</v>
       </c>
     </row>
     <row r="32">
@@ -1599,10 +1599,10 @@
       </c>
       <c r="C34" s="6" t="inlineStr"/>
       <c r="D34" s="6" t="n">
-        <v>15580</v>
+        <v>16077</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>16719</v>
+        <v>16913</v>
       </c>
     </row>
     <row r="35">
@@ -1667,10 +1667,10 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="n">
-        <v>146215</v>
+        <v>145845</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>185904</v>
+        <v>185586</v>
       </c>
     </row>
     <row r="39">
@@ -1682,10 +1682,10 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>159889</v>
+        <v>159856</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>199719</v>
+        <v>200013</v>
       </c>
     </row>
     <row r="40">
